--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\BFH\Semester_5\Software Engineering\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="5510" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -22,6 +17,7 @@
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -153,6 +149,9 @@
   </si>
   <si>
     <t>Zeitrapportierung erstellt + alle Übertragungen gemacht</t>
+  </si>
+  <si>
+    <t>Durchlesen Task1</t>
   </si>
 </sst>
 </file>
@@ -344,64 +343,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -415,13 +369,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -435,13 +398,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -455,13 +427,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -475,13 +456,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -515,11 +505,20 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -565,10 +564,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="38">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -578,17 +577,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="34" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="33" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -599,10 +598,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="32">
+    <tableColumn id="1" name="Person" dataDxfId="20">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="31">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -612,17 +611,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="29" totalsRowDxfId="14">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="28" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="27" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -633,10 +632,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="26">
+    <tableColumn id="1" name="Person" dataDxfId="11">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -646,17 +645,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="5">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -683,11 +682,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="20">
+    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="19"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="18"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -698,10 +697,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle69712" displayName="Tabelle69712" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="56">
+    <tableColumn id="1" name="Person" dataDxfId="53">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="55">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="52">
       <calculatedColumnFormula>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -711,17 +710,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="51">
   <autoFilter ref="B7:E91"/>
-  <sortState ref="B9:E91">
-    <sortCondition descending="1" ref="C11:C94"/>
+  <sortState ref="B8:E91">
+    <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="17">
+    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="16"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="51" totalsRowDxfId="15"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="49" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="48" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -732,10 +731,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="50">
+    <tableColumn id="1" name="Person" dataDxfId="47">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="49">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="46">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -745,17 +744,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="45">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="47" totalsRowDxfId="11">
+    <tableColumn id="5" name="KW" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="46" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="45" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="40" totalsRowDxfId="39"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -766,10 +765,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="44">
+    <tableColumn id="1" name="Person" dataDxfId="38">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="43">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -778,17 +777,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="8">
+    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="40" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="39" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -871,6 +870,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -906,6 +922,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1067,60 +1100,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.77734375" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.77734375" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.77734375" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" customWidth="1"/>
+    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" customWidth="1"/>
+    <col min="25" max="25" width="9.36328125" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.81640625" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.81640625" customWidth="1"/>
+    <col min="35" max="35" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1139,17 +1172,17 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
       </c>
       <c r="B6">
         <f>Tabelle69712[Aufwand Total]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1159,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1169,7 +1202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1179,7 +1212,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1189,7 +1222,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1199,13 +1232,13 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>54.25</v>
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>
@@ -1227,23 +1260,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1263,14 +1296,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1285,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1300,7 +1333,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1315,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1330,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1345,7 +1378,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1360,7 +1393,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1375,463 +1408,463 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1858,27 +1891,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1894,18 +1927,18 @@
       <c r="B3">
         <f>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1920,556 +1953,565 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
+        <v>42639</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
+        <f>WEEKNUM(C9,2)</f>
+        <v>40</v>
+      </c>
+      <c r="C9" s="7">
         <v>42640</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
-        <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="12">
+        <f>WEEKNUM(C10,2)</f>
         <v>40</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>42642</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="12">
+        <f>WEEKNUM(C11,2)</f>
         <v>41</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>42646</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
+        <f>WEEKNUM(C12,2)</f>
         <v>41</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>42649</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
+        <f>WEEKNUM(C13,2)</f>
         <v>42</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>42653</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C14,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C15,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C16,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C17,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C18,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C19,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C20,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C21,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C22,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C23,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C24,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C25,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C26,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C27,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C28,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C29,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C30,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C31,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C32,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C33,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C34,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C35,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C36,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C37,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C38,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C39,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C40,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C41,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C42,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C43,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C44,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C45,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C46,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C47,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C48,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C49,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C50,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C51,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C52,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C53,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C54,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C55,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C56,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C57,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C58,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C59,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C60,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C61,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C62,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C63,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C64,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C65,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C66,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C67,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C68,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C69,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C70,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C71,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C72,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
-        <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C73,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C74,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C75,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C76,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C77,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C78,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C79,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C80,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C81,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C82,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C83,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C84,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C85,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C86,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C87,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C88,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C89,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C90,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+        <f>WEEKNUM(C91,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2477,7 +2519,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510813[Aufwand
 (in h)])</f>
-        <v>6</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
@@ -2501,23 +2543,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2537,14 +2579,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2559,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2574,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2589,7 +2631,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2604,7 +2646,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2619,7 +2661,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2634,7 +2676,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2649,475 +2691,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3148,23 +3190,23 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3172,7 +3214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3184,14 +3226,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3206,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3221,7 +3263,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3236,7 +3278,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3251,7 +3293,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3266,7 +3308,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3281,7 +3323,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3296,7 +3338,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3311,7 +3353,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3326,421 +3368,421 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3767,27 +3809,27 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3795,7 +3837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3807,14 +3849,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3829,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3844,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3859,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3874,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3889,9 +3931,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
-        <f t="shared" ref="B11:B71" si="0">WEEKNUM(C12,2)</f>
+        <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
       </c>
       <c r="C12" s="6">
@@ -3904,7 +3946,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3919,7 +3961,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3934,7 +3976,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3949,7 +3991,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3964,7 +4006,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3979,445 +4021,445 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4448,23 +4490,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4484,14 +4526,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4506,7 +4548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4521,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4536,7 +4578,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4551,7 +4593,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4566,7 +4608,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4581,481 +4623,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5086,23 +5128,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5110,7 +5152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5122,14 +5164,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5144,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5159,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5174,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5189,7 +5231,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B71" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5204,7 +5246,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5219,7 +5261,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5234,7 +5276,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5249,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5264,457 +5306,457 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Durchlesen Task1</t>
+  </si>
+  <si>
+    <t>Bearbeitung Task1</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="B6">
         <f>Tabelle69712[Aufwand Total]</f>
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -1238,7 +1241,7 @@
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>54.5</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1895,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1927,7 +1930,7 @@
       <c r="B3">
         <f>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -1956,10 +1959,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f>WEEKNUM(C8,2)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6">
-        <v>42639</v>
+        <v>42637</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>39</v>
@@ -2001,52 +2004,61 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6">
-        <v>42646</v>
+        <v>42645</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <f>WEEKNUM(C12,2)</f>
         <v>41</v>
       </c>
-      <c r="C12" s="7">
-        <v>42649</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.5</v>
+      <c r="C12" s="6">
+        <v>42646</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <f>WEEKNUM(C13,2)</f>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42649</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="15">
+        <f>WEEKNUM(C14,2)</f>
         <v>42</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>42653</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
-        <f>WEEKNUM(C14,2)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2519,7 +2531,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510813[Aufwand
 (in h)])</f>
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcusevinc/Desktop/Medizininformatik/Programmierung/jee-neon/ch.bfh.btx8081.w2016.blue/trunk/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="5510" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21640" windowHeight="13100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,10 +21,12 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <oleSize ref="A1:I14"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -156,11 +163,14 @@
   <si>
     <t>Bearbeitung Task1</t>
   </si>
+  <si>
+    <t>Interviewfragen und Erzänzung Use Case</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -330,7 +340,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -343,6 +353,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -488,13 +502,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -508,20 +531,7 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -567,10 +577,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="29">
+    <tableColumn id="1" name="Person" dataDxfId="30">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="29">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -580,17 +590,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="28">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="5" name="KW" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -601,10 +611,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="20">
+    <tableColumn id="1" name="Person" dataDxfId="21">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="20">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -614,17 +624,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="19">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="5" name="KW" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -635,10 +645,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="11">
+    <tableColumn id="1" name="Person" dataDxfId="12">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="11">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -648,17 +658,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="KW" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -685,11 +695,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="5" name="KW" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="59" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="58" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -700,10 +710,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle69712" displayName="Tabelle69712" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="53">
+    <tableColumn id="1" name="Person" dataDxfId="57">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="52">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="56">
       <calculatedColumnFormula>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -713,17 +723,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="55">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B8:E91">
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="49" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="48" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="50" totalsRowDxfId="49"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -734,10 +744,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="47">
+    <tableColumn id="1" name="Person" dataDxfId="48">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="46">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="47">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -747,17 +757,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="5" name="KW" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="41" totalsRowDxfId="40"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -768,10 +778,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="38">
+    <tableColumn id="1" name="Person" dataDxfId="39">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="38">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -780,17 +790,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="5" name="KW" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="32" totalsRowDxfId="31"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -798,7 +808,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,9 +853,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -873,31 +883,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -925,23 +918,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1094,69 +1070,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.81640625" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.81640625" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" customWidth="1"/>
-    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.81640625" customWidth="1"/>
-    <col min="30" max="30" width="9.36328125" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.81640625" customWidth="1"/>
-    <col min="35" max="35" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.83203125" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1164,18 +1140,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
       </c>
       <c r="B5">
         <f>Tabelle697[Aufwand Total]</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1185,7 +1161,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1195,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1205,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1215,7 +1191,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1225,7 +1201,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1235,13 +1211,13 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1254,32 +1230,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1295,18 +1271,18 @@
       <c r="B3">
         <f>Tabelle35108[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1321,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1336,7 +1312,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1351,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1366,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1381,7 +1357,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1396,9 +1372,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C13,2)</f>
         <v>42</v>
       </c>
       <c r="C13" s="6">
@@ -1411,463 +1387,472 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <f>WEEKNUM(C13,2)</f>
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42659</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1875,7 +1860,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle35108[Aufwand
 (in h)])</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1889,32 +1874,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1934,14 +1919,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1956,9 +1941,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
-        <f>WEEKNUM(C8,2)</f>
+        <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
       </c>
       <c r="C8" s="6">
@@ -1971,9 +1956,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
-        <f>WEEKNUM(C9,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C9" s="7">
@@ -1986,9 +1971,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
-        <f>WEEKNUM(C10,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C10" s="6">
@@ -2001,9 +1986,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
-        <f>WEEKNUM(C11,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C11" s="6">
@@ -2016,9 +2001,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
-        <f>WEEKNUM(C12,2)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C12" s="6">
@@ -2031,9 +2016,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="15">
-        <f>WEEKNUM(C13,2)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C13" s="7">
@@ -2046,9 +2031,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="15">
-        <f>WEEKNUM(C14,2)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -2061,469 +2046,469 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
-        <f>WEEKNUM(C15,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
-        <f>WEEKNUM(C16,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
-        <f>WEEKNUM(C17,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
-        <f>WEEKNUM(C18,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
-        <f>WEEKNUM(C19,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
-        <f>WEEKNUM(C20,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
-        <f>WEEKNUM(C21,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
-        <f>WEEKNUM(C22,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
-        <f>WEEKNUM(C23,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
-        <f>WEEKNUM(C24,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
-        <f>WEEKNUM(C25,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
-        <f>WEEKNUM(C26,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
-        <f>WEEKNUM(C27,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
-        <f>WEEKNUM(C28,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
-        <f>WEEKNUM(C29,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
-        <f>WEEKNUM(C30,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
-        <f>WEEKNUM(C31,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
-        <f>WEEKNUM(C32,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
-        <f>WEEKNUM(C33,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
-        <f>WEEKNUM(C34,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
-        <f>WEEKNUM(C35,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
-        <f>WEEKNUM(C36,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
-        <f>WEEKNUM(C37,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
-        <f>WEEKNUM(C38,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
-        <f>WEEKNUM(C39,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
-        <f>WEEKNUM(C40,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
-        <f>WEEKNUM(C41,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
-        <f>WEEKNUM(C42,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
-        <f>WEEKNUM(C43,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
-        <f>WEEKNUM(C44,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
-        <f>WEEKNUM(C45,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
-        <f>WEEKNUM(C46,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
-        <f>WEEKNUM(C47,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
-        <f>WEEKNUM(C48,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
-        <f>WEEKNUM(C49,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
-        <f>WEEKNUM(C50,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
-        <f>WEEKNUM(C51,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
-        <f>WEEKNUM(C52,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
-        <f>WEEKNUM(C53,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
-        <f>WEEKNUM(C54,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
-        <f>WEEKNUM(C55,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
-        <f>WEEKNUM(C56,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
-        <f>WEEKNUM(C57,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
-        <f>WEEKNUM(C58,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
-        <f>WEEKNUM(C59,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
-        <f>WEEKNUM(C60,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
-        <f>WEEKNUM(C61,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
-        <f>WEEKNUM(C62,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
-        <f>WEEKNUM(C63,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
-        <f>WEEKNUM(C64,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
-        <f>WEEKNUM(C65,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
-        <f>WEEKNUM(C66,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
-        <f>WEEKNUM(C67,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
-        <f>WEEKNUM(C68,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
-        <f>WEEKNUM(C69,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
-        <f>WEEKNUM(C70,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
-        <f>WEEKNUM(C71,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
-        <f>WEEKNUM(C72,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B72:B103" si="2">WEEKNUM(C72,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
-        <f>WEEKNUM(C73,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
-        <f>WEEKNUM(C74,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
-        <f>WEEKNUM(C75,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
-        <f>WEEKNUM(C76,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
-        <f>WEEKNUM(C77,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
-        <f>WEEKNUM(C78,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
-        <f>WEEKNUM(C79,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
-        <f>WEEKNUM(C80,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
-        <f>WEEKNUM(C81,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
-        <f>WEEKNUM(C82,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
-        <f>WEEKNUM(C83,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
-        <f>WEEKNUM(C84,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
-        <f>WEEKNUM(C85,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
-        <f>WEEKNUM(C86,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
-        <f>WEEKNUM(C87,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
-        <f>WEEKNUM(C88,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
-        <f>WEEKNUM(C89,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
-        <f>WEEKNUM(C90,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
-        <f>WEEKNUM(C91,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2546,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -2555,23 +2540,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2579,7 +2564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2591,14 +2576,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2613,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2628,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2643,7 +2628,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2658,7 +2643,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2673,7 +2658,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2688,7 +2673,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2703,475 +2688,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3193,7 +3178,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E85"/>
@@ -3202,23 +3187,23 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3226,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3238,14 +3223,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3260,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3275,7 +3260,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3290,7 +3275,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3305,7 +3290,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3320,7 +3305,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3335,7 +3320,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3350,7 +3335,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3365,7 +3350,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3380,421 +3365,421 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3816,7 +3801,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
@@ -3825,23 +3810,23 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3849,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3861,14 +3846,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3883,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3898,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3913,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3928,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3943,7 +3928,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -3958,7 +3943,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3973,7 +3958,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3988,7 +3973,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4003,7 +3988,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4018,7 +4003,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4033,445 +4018,445 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4493,7 +4478,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -4502,23 +4487,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4538,14 +4523,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4560,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4575,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4590,7 +4575,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4605,7 +4590,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4620,7 +4605,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4635,481 +4620,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5131,7 +5116,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
@@ -5140,23 +5125,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5164,7 +5149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5176,14 +5161,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5198,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5213,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5228,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5243,7 +5228,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B71" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5258,7 +5243,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5273,7 +5258,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5288,7 +5273,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5303,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5318,457 +5303,457 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcusevinc/Desktop/Medizininformatik/Programmierung/jee-neon/ch.bfh.btx8081.w2016.blue/trunk/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21640" windowHeight="13100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="5510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -21,20 +16,21 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <oleSize ref="A1:I14"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -113,9 +109,6 @@
     <t>Bearbeitung CS1 Task2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bearbeitung CS1 Task2</t>
-  </si>
-  <si>
     <t>Teambesprechung/
 Bearbeitung CS1 Task2</t>
   </si>
@@ -166,11 +159,17 @@
   <si>
     <t>Interviewfragen und Erzänzung Use Case</t>
   </si>
+  <si>
+    <t>Teambesprechung CS1 Task3</t>
+  </si>
+  <si>
+    <t>Bearbeitung Fragen CS1 Task3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -340,7 +339,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -353,8 +352,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -502,22 +506,13 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -535,6 +530,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -577,10 +576,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="30">
+    <tableColumn id="1" name="Person" dataDxfId="32">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="29">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="31">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -590,17 +589,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="30">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" name="KW" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -611,10 +610,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="21">
+    <tableColumn id="1" name="Person" dataDxfId="23">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="20">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="22">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -624,17 +623,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="21">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="5" name="KW" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="16" totalsRowDxfId="15"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -645,10 +644,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="12">
+    <tableColumn id="1" name="Person" dataDxfId="14">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="11">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="13">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -658,17 +657,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="5" name="KW" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -695,11 +694,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="5">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="59" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="58" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -710,10 +709,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle69712" displayName="Tabelle69712" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="57">
+    <tableColumn id="1" name="Person" dataDxfId="56">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="56">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="55">
       <calculatedColumnFormula>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -723,17 +722,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="54">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B8:E91">
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="51" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -744,10 +743,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="48">
+    <tableColumn id="1" name="Person" dataDxfId="50">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="47">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="49">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -757,17 +756,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="48">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="5" name="KW" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="43" totalsRowDxfId="42"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -778,10 +777,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="39">
+    <tableColumn id="1" name="Person" dataDxfId="41">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="38">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="40">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -790,17 +789,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="39">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="5" name="KW" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="34" totalsRowDxfId="33"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1070,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG12"/>
@@ -1079,60 +1078,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.83203125" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.83203125" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.83203125" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" customWidth="1"/>
+    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" customWidth="1"/>
+    <col min="25" max="25" width="9.36328125" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.81640625" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.81640625" customWidth="1"/>
+    <col min="35" max="35" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1151,17 +1150,17 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
       </c>
       <c r="B6">
         <f>Tabelle69712[Aufwand Total]</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1171,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1181,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1191,7 +1190,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1201,7 +1200,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1211,13 +1210,13 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1230,32 +1229,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1275,14 +1274,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1297,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1312,7 +1311,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1327,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1336,13 +1335,13 @@
         <v>42641</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1351,13 +1350,13 @@
         <v>42646</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1366,13 +1365,13 @@
         <v>42649</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1381,13 +1380,13 @@
         <v>42653</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1396,463 +1395,463 @@
         <v>42659</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1874,32 +1873,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1915,18 +1914,18 @@
       <c r="B3">
         <f>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1941,24 +1940,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
-        <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
+        <f>WEEKNUM(C8,2)</f>
         <v>39</v>
       </c>
       <c r="C8" s="6">
         <v>42637</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C9,2)</f>
         <v>40</v>
       </c>
       <c r="C9" s="7">
@@ -1971,9 +1970,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C10,2)</f>
         <v>40</v>
       </c>
       <c r="C10" s="6">
@@ -1986,529 +1985,547 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C11,2)</f>
         <v>40</v>
       </c>
       <c r="C11" s="6">
         <v>42645</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C12,2)</f>
         <v>41</v>
       </c>
       <c r="C12" s="6">
         <v>42646</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C13,2)</f>
         <v>41</v>
       </c>
       <c r="C13" s="7">
         <v>42649</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="15">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(C14,2)</f>
         <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>42653</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C15,2)</f>
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42658</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C16,2)</f>
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42660</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C17,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C18,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C19,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C20,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C21,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C22,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C23,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C24,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C25,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C26,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C27,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C28,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C29,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C30,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C31,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C32,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C33,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C34,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C35,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C36,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C37,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C38,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C39,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
-        <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C40,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C41,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C42,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C43,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C44,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C45,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C46,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C47,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C48,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C49,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C50,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C51,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C52,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C53,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C54,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C55,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C56,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C57,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C58,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C59,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C60,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C61,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C62,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C63,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C64,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C65,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C66,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C67,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C68,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C69,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C70,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C71,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
-        <f t="shared" ref="B72:B103" si="2">WEEKNUM(C72,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C72,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C73,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C74,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C75,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C76,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C77,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C78,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C79,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C80,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C81,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C82,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C83,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C84,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C85,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C86,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C87,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C88,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C89,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C90,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+        <f>WEEKNUM(C91,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2516,7 +2533,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510813[Aufwand
 (in h)])</f>
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2548,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -2540,23 +2557,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2576,14 +2593,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2598,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2613,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2628,7 +2645,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2637,13 +2654,13 @@
         <v>42646</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2652,13 +2669,13 @@
         <v>42649</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2667,13 +2684,13 @@
         <v>42653</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2682,481 +2699,481 @@
         <v>42656</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3178,7 +3195,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E85"/>
@@ -3187,23 +3204,23 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3211,7 +3228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3223,14 +3240,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3245,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3260,7 +3277,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3275,7 +3292,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3290,7 +3307,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3305,7 +3322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3314,13 +3331,13 @@
         <v>42646</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3329,13 +3346,13 @@
         <v>42649</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3344,13 +3361,13 @@
         <v>42653</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3359,427 +3376,427 @@
         <v>42656</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3801,7 +3818,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
@@ -3810,23 +3827,23 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3834,7 +3851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3846,14 +3863,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3868,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3883,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3898,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3913,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3928,7 +3945,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -3937,13 +3954,13 @@
         <v>42646</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3952,13 +3969,13 @@
         <v>42649</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3967,13 +3984,13 @@
         <v>42651</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3982,13 +3999,13 @@
         <v>42653</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3997,13 +4014,13 @@
         <v>42655</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4012,451 +4029,451 @@
         <v>42658</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4478,7 +4495,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -4487,23 +4504,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4511,7 +4528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4523,14 +4540,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4545,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4560,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4569,13 +4586,13 @@
         <v>42642</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4584,13 +4601,13 @@
         <v>42646</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4599,13 +4616,13 @@
         <v>42649</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4614,487 +4631,487 @@
         <v>42653</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5116,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
@@ -5125,23 +5142,23 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5149,7 +5166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5161,14 +5178,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5183,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5198,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5213,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5228,7 +5245,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B71" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5237,13 +5254,13 @@
         <v>42646</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5252,13 +5269,13 @@
         <v>42649</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5267,13 +5284,13 @@
         <v>42653</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5282,13 +5299,13 @@
         <v>42655</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5297,463 +5314,463 @@
         <v>42658</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca_000\OneDrive\DITTP2\BFH\Semester 3 HS\VGJ1 - BTX8081 - Software Engineering and Design\ch.bfh.btx8081.w2016.blue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="5510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="5508" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,8 +21,7 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <oleSize ref="A1:I14"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -164,6 +168,15 @@
   </si>
   <si>
     <t>Bearbeitung Fragen CS1 Task3</t>
+  </si>
+  <si>
+    <t>Korrektur und Anpassungen CS2</t>
+  </si>
+  <si>
+    <t>Korrektur und Anpassung CS2</t>
+  </si>
+  <si>
+    <t>Korrrektur und Anpassung CS2</t>
   </si>
 </sst>
 </file>
@@ -339,7 +352,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -364,19 +377,37 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -419,22 +450,13 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -448,20 +470,11 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -576,10 +589,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="32">
+    <tableColumn id="1" name="Person" dataDxfId="35">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="31">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -589,17 +602,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="5">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="31" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="30" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -610,10 +623,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="23">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="22">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -623,17 +636,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -644,10 +657,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="14">
+    <tableColumn id="1" name="Person" dataDxfId="20">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="13">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -657,17 +670,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="16" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="15" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -694,11 +707,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="5">
+    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="14">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="13"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="12"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -728,11 +741,11 @@
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="11">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="51" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="51" totalsRowDxfId="9"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -795,11 +808,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="5" name="KW" dataDxfId="38" totalsRowDxfId="8">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="37" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="36" totalsRowDxfId="6"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1078,60 +1091,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.81640625" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.81640625" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" customWidth="1"/>
-    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.81640625" customWidth="1"/>
-    <col min="30" max="30" width="9.36328125" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.81640625" customWidth="1"/>
-    <col min="35" max="35" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.77734375" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.77734375" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.77734375" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1139,28 +1152,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
       </c>
       <c r="B5">
         <f>Tabelle697[Aufwand Total]</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
       </c>
       <c r="B6">
         <f>Tabelle69712[Aufwand Total]</f>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1170,27 +1183,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
       </c>
       <c r="B8" s="14">
         <f>Tabelle69716[Aufwand Total]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
       </c>
       <c r="B9" s="14">
         <f>Tabelle69718[Aufwand Total]</f>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1200,23 +1213,23 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
       </c>
       <c r="B11" s="14">
         <f>Tabelle69722[Aufwand Total]</f>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1235,26 +1248,26 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1270,18 +1283,18 @@
       <c r="B3">
         <f>Tabelle35108[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1296,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1311,7 +1324,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1326,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1341,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1356,7 +1369,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1371,7 +1384,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1386,7 +1399,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1401,457 +1414,466 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1859,7 +1881,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle35108[Aufwand
 (in h)])</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -1878,27 +1900,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1914,18 +1936,18 @@
       <c r="B3">
         <f>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>7.75</v>
+        <v>9.75</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1940,9 +1962,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
-        <f>WEEKNUM(C8,2)</f>
+        <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
       </c>
       <c r="C8" s="6">
@@ -1955,9 +1977,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
-        <f>WEEKNUM(C9,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C9" s="7">
@@ -1970,9 +1992,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
-        <f>WEEKNUM(C10,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C10" s="6">
@@ -1985,9 +2007,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
-        <f>WEEKNUM(C11,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C11" s="6">
@@ -2000,9 +2022,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
-        <f>WEEKNUM(C12,2)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C12" s="6">
@@ -2015,9 +2037,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
-        <f>WEEKNUM(C13,2)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C13" s="7">
@@ -2030,9 +2052,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
-        <f>WEEKNUM(C14,2)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C14" s="7">
@@ -2045,9 +2067,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <f>WEEKNUM(C15,2)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C15" s="6">
@@ -2060,9 +2082,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <f>WEEKNUM(C16,2)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C16" s="6">
@@ -2075,457 +2097,466 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
-        <f>WEEKNUM(C17,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
-        <f>WEEKNUM(C18,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
-        <f>WEEKNUM(C19,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
-        <f>WEEKNUM(C20,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
-        <f>WEEKNUM(C21,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
-        <f>WEEKNUM(C22,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
-        <f>WEEKNUM(C23,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
-        <f>WEEKNUM(C24,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
-        <f>WEEKNUM(C25,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
-        <f>WEEKNUM(C26,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
-        <f>WEEKNUM(C27,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
-        <f>WEEKNUM(C28,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
-        <f>WEEKNUM(C29,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
-        <f>WEEKNUM(C30,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
-        <f>WEEKNUM(C31,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
-        <f>WEEKNUM(C32,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
-        <f>WEEKNUM(C33,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
-        <f>WEEKNUM(C34,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
-        <f>WEEKNUM(C35,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
-        <f>WEEKNUM(C36,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
-        <f>WEEKNUM(C37,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
-        <f>WEEKNUM(C38,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
-        <f>WEEKNUM(C39,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
-        <f>WEEKNUM(C40,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
-        <f>WEEKNUM(C41,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
-        <f>WEEKNUM(C42,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
-        <f>WEEKNUM(C43,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
-        <f>WEEKNUM(C44,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
-        <f>WEEKNUM(C45,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
-        <f>WEEKNUM(C46,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
-        <f>WEEKNUM(C47,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
-        <f>WEEKNUM(C48,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
-        <f>WEEKNUM(C49,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
-        <f>WEEKNUM(C50,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
-        <f>WEEKNUM(C51,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
-        <f>WEEKNUM(C52,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
-        <f>WEEKNUM(C53,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
-        <f>WEEKNUM(C54,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
-        <f>WEEKNUM(C55,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
-        <f>WEEKNUM(C56,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
-        <f>WEEKNUM(C57,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
-        <f>WEEKNUM(C58,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
-        <f>WEEKNUM(C59,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
-        <f>WEEKNUM(C60,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
-        <f>WEEKNUM(C61,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
-        <f>WEEKNUM(C62,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
-        <f>WEEKNUM(C63,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
-        <f>WEEKNUM(C64,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
-        <f>WEEKNUM(C65,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
-        <f>WEEKNUM(C66,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
-        <f>WEEKNUM(C67,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
-        <f>WEEKNUM(C68,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
-        <f>WEEKNUM(C69,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
-        <f>WEEKNUM(C70,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
-        <f>WEEKNUM(C71,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
-        <f>WEEKNUM(C72,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B72:B103" si="2">WEEKNUM(C72,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
-        <f>WEEKNUM(C73,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
-        <f>WEEKNUM(C74,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
-        <f>WEEKNUM(C75,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
-        <f>WEEKNUM(C76,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
-        <f>WEEKNUM(C77,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
-        <f>WEEKNUM(C78,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
-        <f>WEEKNUM(C79,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
-        <f>WEEKNUM(C80,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
-        <f>WEEKNUM(C81,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
-        <f>WEEKNUM(C82,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
-        <f>WEEKNUM(C83,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
-        <f>WEEKNUM(C84,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
-        <f>WEEKNUM(C85,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
-        <f>WEEKNUM(C86,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
-        <f>WEEKNUM(C87,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
-        <f>WEEKNUM(C88,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
-        <f>WEEKNUM(C89,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
-        <f>WEEKNUM(C90,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
-        <f>WEEKNUM(C91,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2533,7 +2564,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510813[Aufwand
 (in h)])</f>
-        <v>7.75</v>
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
@@ -2557,23 +2588,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2593,14 +2624,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2615,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2630,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2645,7 +2676,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2660,7 +2691,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2675,7 +2706,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2690,7 +2721,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2705,475 +2736,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3201,26 +3232,26 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3228,7 +3259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3236,18 +3267,18 @@
       <c r="B3">
         <f>Tabelle3510817[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3262,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3277,7 +3308,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3292,7 +3323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3307,7 +3338,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3322,7 +3353,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3337,7 +3368,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3352,7 +3383,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3367,7 +3398,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3382,421 +3413,430 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3804,7 +3844,7 @@
       <c r="E85">
         <f>SUBTOTAL(109,Tabelle3510817[Aufwand
 (in h)])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3824,26 +3864,26 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3851,7 +3891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3859,18 +3899,18 @@
       <c r="B3">
         <f>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>10.25</v>
+        <v>12.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3885,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3900,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3915,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3930,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3945,7 +3985,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -3960,7 +4000,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3975,7 +4015,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3990,7 +4030,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4005,7 +4045,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4020,7 +4060,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4035,445 +4075,454 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4481,7 +4530,7 @@
       <c r="E91">
         <f>SUBTOTAL(109,Tabelle3510819[Aufwand
 (in h)])</f>
-        <v>10.25</v>
+        <v>12.25</v>
       </c>
     </row>
   </sheetData>
@@ -4504,23 +4553,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4528,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4540,14 +4589,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4562,7 +4611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4577,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4592,7 +4641,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4607,7 +4656,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4622,7 +4671,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4637,481 +4686,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5138,27 +5187,27 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5166,7 +5215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5174,18 +5223,18 @@
       <c r="B3">
         <f>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>10.25</v>
+        <v>12.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5200,7 +5249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5215,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5230,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5245,7 +5294,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B71" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5260,7 +5309,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5275,7 +5324,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5290,7 +5339,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5305,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5320,457 +5369,466 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -5778,7 +5836,7 @@
       <c r="E91">
         <f>SUBTOTAL(109,Tabelle3510823[Aufwand
 (in h)])</f>
-        <v>10.25</v>
+        <v>12.25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Korrrektur und Anpassung CS2</t>
+  </si>
+  <si>
+    <t>Interview_Leitfaden</t>
   </si>
 </sst>
 </file>
@@ -368,46 +371,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -450,13 +426,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -519,13 +504,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -539,11 +533,20 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -589,10 +592,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="35">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -602,42 +605,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E90"/>
-  <sortState ref="B9:E91">
-    <sortCondition descending="1" ref="C11:C94"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="5">
-      <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="31" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="30" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
-  <autoFilter ref="A2:B3"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="29">
-      <calculatedColumnFormula>B6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
-      <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
-(in h)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="27">
-  <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
@@ -649,6 +618,40 @@
     <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
+  <autoFilter ref="A2:B3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Person" dataDxfId="20">
+      <calculatedColumnFormula>B6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+      <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
+(in h)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
+  <autoFilter ref="B7:E91"/>
+  <sortState ref="B9:E91">
+    <sortCondition descending="1" ref="C11:C94"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+      <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
+  </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
@@ -657,10 +660,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="20">
+    <tableColumn id="1" name="Person" dataDxfId="11">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -670,17 +673,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="16" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="15" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -707,11 +710,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="14">
+    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -722,10 +725,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle69712" displayName="Tabelle69712" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="56">
+    <tableColumn id="1" name="Person" dataDxfId="53">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="55">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="52">
       <calculatedColumnFormula>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -735,17 +738,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="51">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B8:E91">
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="11">
+    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="52" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="51" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="46" totalsRowDxfId="45"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -756,10 +759,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="50">
+    <tableColumn id="1" name="Person" dataDxfId="44">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="49">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="43">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -769,17 +772,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="42">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -790,10 +793,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="41">
+    <tableColumn id="1" name="Person" dataDxfId="35">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="40">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -802,17 +805,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="38" totalsRowDxfId="8">
+    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="37" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="36" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="31" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="30" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1190,7 +1193,7 @@
       </c>
       <c r="B8" s="14">
         <f>Tabelle69716[Aufwand Total]</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,7 +1232,7 @@
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1903,7 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2438,7 +2441,7 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
-        <f t="shared" ref="B72:B103" si="2">WEEKNUM(C72,2)</f>
+        <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -3232,7 +3235,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,7 +3270,7 @@
       <c r="B3">
         <f>Tabelle3510817[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3428,97 +3431,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3844,7 +3856,7 @@
       <c r="E85">
         <f>SUBTOTAL(109,Tabelle3510817[Aufwand
 (in h)])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca_000\OneDrive\DITTP2\BFH\Semester 3 HS\VGJ1 - BTX8081 - Software Engineering and Design\ch.bfh.btx8081.w2016.blue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\workspace\ch.bfh.btx8081.w2016.blue\trunk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Interview_Leitfaden</t>
+  </si>
+  <si>
+    <t>Interviewfragen aufgestellt</t>
+  </si>
+  <si>
+    <t>Teambesprechung Interviewfragen</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -368,22 +374,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -455,11 +452,20 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -592,10 +598,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="29">
+    <tableColumn id="1" name="Person" dataDxfId="26">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -605,17 +611,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -626,10 +632,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="20">
+    <tableColumn id="1" name="Person" dataDxfId="17">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -639,17 +645,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -660,10 +666,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="11">
+    <tableColumn id="1" name="Person" dataDxfId="8">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="7">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -673,17 +679,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E91" totalsRowCount="1" headerRowDxfId="9">
-  <autoFilter ref="B7:E90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="KW" dataDxfId="5" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -811,11 +817,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="31" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="30" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1094,7 +1100,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
@@ -1223,7 +1229,7 @@
       </c>
       <c r="B11" s="14">
         <f>Tabelle69722[Aufwand Total]</f>
-        <v>12.25</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,7 +1238,7 @@
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>69</v>
+        <v>70.25</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1260,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
@@ -1907,7 +1913,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
@@ -2591,7 +2597,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
@@ -3238,7 +3244,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
@@ -3879,7 +3885,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
@@ -4565,7 +4571,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
@@ -5197,13 +5203,13 @@
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
@@ -5235,7 +5241,7 @@
       <c r="B3">
         <f>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>12.25</v>
+        <v>13.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -5308,7 +5314,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
-        <f t="shared" ref="B11:B71" si="0">WEEKNUM(C11,2)</f>
+        <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
       </c>
       <c r="C11" s="7">
@@ -5384,109 +5390,127 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42659</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
+        <v>42660</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
+        <v>43</v>
+      </c>
+      <c r="C18" s="6">
         <v>42661</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5722,133 +5746,127 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
-        <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
-      <c r="C91" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91">
+      <c r="B90" s="14"/>
+      <c r="C90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90">
         <f>SUBTOTAL(109,Tabelle3510823[Aufwand
 (in h)])</f>
-        <v>12.25</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\workspace\ch.bfh.btx8081.w2016.blue\trunk\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="5508" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="7905" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -22,6 +17,7 @@
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <oleSize ref="A1:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -361,7 +357,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -374,13 +370,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -481,20 +486,11 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -598,10 +594,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="26">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -611,17 +607,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -632,10 +628,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="17">
+    <tableColumn id="1" name="Person" dataDxfId="20">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -645,17 +641,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -666,10 +662,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="8">
+    <tableColumn id="1" name="Person" dataDxfId="11">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="7">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -679,17 +675,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="5" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -784,11 +780,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="40" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="39" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -799,10 +795,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="35">
+    <tableColumn id="1" name="Person" dataDxfId="38">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -811,17 +807,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1100,60 +1096,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.77734375" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.77734375" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.77734375" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.75" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.75" customWidth="1"/>
+    <col min="20" max="20" width="9.375" customWidth="1"/>
+    <col min="22" max="22" width="14.625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.75" customWidth="1"/>
+    <col min="25" max="25" width="9.375" customWidth="1"/>
+    <col min="27" max="27" width="14.625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.75" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="32" max="32" width="14.625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.75" customWidth="1"/>
+    <col min="35" max="35" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1172,7 +1168,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1182,17 +1178,17 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
       </c>
       <c r="B7" s="14">
         <f>Tabelle69714[Aufwand Total]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1202,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1212,7 +1208,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1222,7 +1218,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1232,13 +1228,13 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>70.25</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1260,23 +1256,23 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1296,14 +1292,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1318,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1333,7 +1329,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1348,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1363,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1378,7 +1374,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1393,7 +1389,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1408,7 +1404,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1423,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1438,451 +1434,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1913,23 +1909,23 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1949,14 +1945,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1971,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -1986,7 +1982,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2001,7 +1997,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2016,7 +2012,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2031,7 +2027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2046,7 +2042,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2061,7 +2057,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2076,7 +2072,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2091,7 +2087,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2106,7 +2102,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2121,451 +2117,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2593,27 +2589,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2629,18 +2625,18 @@
       <c r="B3">
         <f>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2655,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2670,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2685,7 +2681,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2700,7 +2696,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2715,7 +2711,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2730,7 +2726,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2745,475 +2741,484 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42659</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3221,7 +3226,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510815[Aufwand
 (in h)])</f>
-        <v>6</v>
+        <v>6.75</v>
       </c>
     </row>
   </sheetData>
@@ -3244,23 +3249,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3280,14 +3285,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3302,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3317,7 +3322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3332,7 +3337,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3347,7 +3352,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3362,7 +3367,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3377,7 +3382,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3392,7 +3397,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3407,7 +3412,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3422,7 +3427,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3437,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3452,409 +3457,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3882,26 +3887,26 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3921,14 +3926,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3943,7 +3948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3958,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3973,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3988,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4003,7 +4008,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4018,7 +4023,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4033,7 +4038,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4048,7 +4053,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4063,7 +4068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4078,7 +4083,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4093,7 +4098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4108,439 +4113,439 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4571,23 +4576,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4607,14 +4612,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4629,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4644,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4659,7 +4664,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4674,7 +4679,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4689,7 +4694,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4704,481 +4709,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5205,27 +5210,27 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5245,14 +5250,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5267,7 +5272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5282,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5297,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5312,7 +5317,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5327,7 +5332,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5342,7 +5347,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5357,7 +5362,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5372,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5387,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5402,7 +5407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5417,7 +5422,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
         <v>43</v>
@@ -5432,433 +5437,433 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\workspace\ch.bfh.btx8081.w2016.blue\trunk\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="7905" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="5508" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,6 @@
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <oleSize ref="A1:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -182,6 +186,9 @@
   </si>
   <si>
     <t>Teambesprechung Interviewfragen</t>
+  </si>
+  <si>
+    <t>CS2_Task2 Activity Diagramm PIP gezeichnet</t>
   </si>
 </sst>
 </file>
@@ -357,7 +364,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -370,22 +377,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -486,11 +484,20 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -594,10 +601,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="29">
+    <tableColumn id="1" name="Person" dataDxfId="26">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -607,17 +614,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -628,10 +635,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="20">
+    <tableColumn id="1" name="Person" dataDxfId="17">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -641,17 +648,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -662,10 +669,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="11">
+    <tableColumn id="1" name="Person" dataDxfId="8">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="7">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -675,17 +682,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="KW" dataDxfId="5" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -780,11 +787,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="40" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="39" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -795,10 +802,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="38">
+    <tableColumn id="1" name="Person" dataDxfId="35">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -807,17 +814,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1096,60 +1103,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.75" customWidth="1"/>
-    <col min="15" max="15" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="14.625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.75" customWidth="1"/>
-    <col min="20" max="20" width="9.375" customWidth="1"/>
-    <col min="22" max="22" width="14.625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.75" customWidth="1"/>
-    <col min="25" max="25" width="9.375" customWidth="1"/>
-    <col min="27" max="27" width="14.625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.75" customWidth="1"/>
-    <col min="30" max="30" width="9.375" customWidth="1"/>
-    <col min="32" max="32" width="14.625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.75" customWidth="1"/>
-    <col min="35" max="35" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.77734375" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.77734375" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.77734375" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1168,7 +1175,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1178,17 +1185,17 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
       </c>
       <c r="B7" s="14">
         <f>Tabelle69714[Aufwand Total]</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1198,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1208,7 +1215,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1218,23 +1225,23 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
       </c>
       <c r="B11" s="14">
         <f>Tabelle69722[Aufwand Total]</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>71</v>
+        <v>71.75</v>
       </c>
     </row>
   </sheetData>
@@ -1256,23 +1263,23 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1292,14 +1299,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1314,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1329,7 +1336,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1344,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1359,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1374,7 +1381,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1389,7 +1396,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1404,7 +1411,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1419,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1434,451 +1441,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1909,23 +1916,23 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1933,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1945,14 +1952,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1967,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -1982,7 +1989,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1997,7 +2004,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2012,7 +2019,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2027,7 +2034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2042,7 +2049,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2057,7 +2064,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2072,7 +2079,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2087,7 +2094,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2102,7 +2109,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2117,451 +2124,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2589,27 +2596,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2625,18 +2632,18 @@
       <c r="B3">
         <f>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2651,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2666,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2681,7 +2688,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2696,7 +2703,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2711,7 +2718,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2726,7 +2733,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2741,484 +2748,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C14" s="6">
-        <v>42659</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3226,7 +3224,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510815[Aufwand
 (in h)])</f>
-        <v>6.75</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3249,23 +3247,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3273,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3285,14 +3283,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3307,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3322,7 +3320,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3337,7 +3335,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3352,7 +3350,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3367,7 +3365,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3382,7 +3380,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3397,7 +3395,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3412,7 +3410,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3427,7 +3425,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3442,7 +3440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3457,409 +3455,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3887,26 +3885,26 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3914,7 +3912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3926,14 +3924,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3948,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3963,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3978,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3993,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4008,7 +4006,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4023,7 +4021,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4038,7 +4036,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4053,7 +4051,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4068,7 +4066,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4083,7 +4081,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4098,7 +4096,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4113,439 +4111,439 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4576,23 +4574,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4600,7 +4598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4612,14 +4610,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4634,7 +4632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4649,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4664,7 +4662,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4679,7 +4677,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4694,7 +4692,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4709,481 +4707,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5210,27 +5208,27 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5246,18 +5244,18 @@
       <c r="B3">
         <f>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5272,7 +5270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5287,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5302,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5317,7 +5315,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5332,7 +5330,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5347,7 +5345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5362,7 +5360,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5377,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5392,7 +5390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5407,7 +5405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5422,7 +5420,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
         <v>43</v>
@@ -5437,433 +5435,442 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42662</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -5871,7 +5878,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle3510823[Aufwand
 (in h)])</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\workspace\ch.bfh.btx8081.w2016.blue\trunk\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="5508" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="13790" windowHeight="6890" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,8 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <oleSize ref="A1:H18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -190,11 +186,17 @@
   <si>
     <t>CS2_Task2 Activity Diagramm PIP gezeichnet</t>
   </si>
+  <si>
+    <t>Interviewvorbereitung, Interview durchführen, CS1_task 3 bearbeitung</t>
+  </si>
+  <si>
+    <t>CS1_Task 3 bearbeitung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -377,6 +379,15 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -426,20 +437,11 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -620,11 +622,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -635,10 +637,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="17">
+    <tableColumn id="1" name="Person" dataDxfId="20">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -648,17 +650,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -669,10 +671,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="8">
+    <tableColumn id="1" name="Person" dataDxfId="11">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="7">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -682,17 +684,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="5" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="5">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="6" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1086,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1103,60 +1105,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.77734375" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.77734375" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.77734375" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" customWidth="1"/>
+    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" customWidth="1"/>
+    <col min="25" max="25" width="9.36328125" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.81640625" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.81640625" customWidth="1"/>
+    <col min="35" max="35" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="25.75" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1175,7 +1177,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1185,7 +1187,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1195,7 +1197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1205,17 +1207,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
       </c>
       <c r="B9" s="14">
         <f>Tabelle69718[Aufwand Total]</f>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1225,23 +1227,23 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
       </c>
       <c r="B11" s="14">
         <f>Tabelle69722[Aufwand Total]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>71.75</v>
+        <v>88.75</v>
       </c>
     </row>
   </sheetData>
@@ -1263,23 +1265,23 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1299,14 +1301,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1321,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1336,7 +1338,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1351,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1366,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1381,7 +1383,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1396,7 +1398,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1411,7 +1413,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1426,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1441,451 +1443,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1916,23 +1918,23 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1952,14 +1954,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1974,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -1989,7 +1991,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2004,7 +2006,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2019,7 +2021,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2034,7 +2036,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2049,7 +2051,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2064,7 +2066,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2079,7 +2081,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2094,7 +2096,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2109,7 +2111,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2124,451 +2126,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2600,23 +2602,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2636,14 +2638,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2658,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2673,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2688,7 +2690,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2703,7 +2705,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2718,7 +2720,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2733,7 +2735,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2748,475 +2750,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3247,23 +3249,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3283,14 +3285,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3305,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3320,7 +3322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.25" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3335,7 +3337,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3350,7 +3352,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3365,7 +3367,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3380,7 +3382,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3395,7 +3397,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3410,7 +3412,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3425,7 +3427,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3440,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3455,409 +3457,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3884,27 +3886,27 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3920,18 +3922,18 @@
       <c r="B3">
         <f>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>12.25</v>
+        <v>21.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3946,7 +3948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3961,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3976,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3991,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4006,7 +4008,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4021,7 +4023,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4036,7 +4038,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4051,7 +4053,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4066,7 +4068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4081,7 +4083,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4096,7 +4098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4111,439 +4113,457 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42663</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4551,7 +4571,7 @@
       <c r="E91">
         <f>SUBTOTAL(109,Tabelle3510819[Aufwand
 (in h)])</f>
-        <v>12.25</v>
+        <v>21.25</v>
       </c>
     </row>
   </sheetData>
@@ -4574,23 +4594,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4598,7 +4618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4610,14 +4630,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4632,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4647,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4662,7 +4682,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4677,7 +4697,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4692,7 +4712,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4707,481 +4727,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5208,27 +5228,27 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5236,7 +5256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5244,18 +5264,18 @@
       <c r="B3">
         <f>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5270,7 +5290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5285,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5300,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5315,7 +5335,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5330,7 +5350,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5345,7 +5365,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5360,7 +5380,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5375,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5390,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5405,7 +5425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5420,7 +5440,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
         <v>43</v>
@@ -5435,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5450,427 +5470,445 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42663</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -5878,7 +5916,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle3510823[Aufwand
 (in h)])</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcusevinc/Desktop/Medizininformatik/Programmierung/jee-neon/ch.bfh.btx8081.w2016.blue/trunk/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="13790" windowHeight="6890" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="20200" windowHeight="10240" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,21 +21,20 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <oleSize ref="A1:H18"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -191,6 +195,9 @@
   </si>
   <si>
     <t>CS1_Task 3 bearbeitung</t>
+  </si>
+  <si>
+    <t>Interview durchführung</t>
   </si>
 </sst>
 </file>
@@ -366,7 +373,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -382,19 +389,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -437,13 +444,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -544,20 +560,11 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -603,10 +610,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="26">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -616,17 +623,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -690,11 +697,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="5">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -721,11 +728,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -736,10 +743,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle69712" displayName="Tabelle69712" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="53">
+    <tableColumn id="1" name="Person" dataDxfId="56">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="52">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="55">
       <calculatedColumnFormula>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -749,17 +756,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="54">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B8:E91">
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="49" totalsRowDxfId="48"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -770,10 +777,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="44">
+    <tableColumn id="1" name="Person" dataDxfId="47">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="43">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="46">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -783,17 +790,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="45">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" name="KW" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="40" totalsRowDxfId="39"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -804,10 +811,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="35">
+    <tableColumn id="1" name="Person" dataDxfId="38">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -816,17 +823,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1088,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG12"/>
@@ -1105,60 +1112,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.81640625" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.81640625" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" customWidth="1"/>
-    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.81640625" customWidth="1"/>
-    <col min="30" max="30" width="9.36328125" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.81640625" customWidth="1"/>
-    <col min="35" max="35" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.83203125" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1166,18 +1173,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
       </c>
       <c r="B5">
         <f>Tabelle697[Aufwand Total]</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1187,7 +1194,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1197,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1207,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1217,7 +1224,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1227,7 +1234,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1237,13 +1244,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>88.75</v>
+        <v>90.75</v>
       </c>
     </row>
   </sheetData>
@@ -1256,32 +1263,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1297,18 +1304,18 @@
       <c r="B3">
         <f>Tabelle35108[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1323,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1338,7 +1345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1353,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1368,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1383,7 +1390,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1398,7 +1405,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1413,7 +1420,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1428,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1443,451 +1450,459 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1895,7 +1910,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle35108[Aufwand
 (in h)])</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1924,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -1918,23 +1933,23 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1954,14 +1969,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1976,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -1991,7 +2006,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2006,7 +2021,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2021,7 +2036,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2036,7 +2051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2051,7 +2066,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2066,7 +2081,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2081,7 +2096,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2096,7 +2111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2111,7 +2126,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2126,451 +2141,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2593,7 +2608,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -2602,23 +2617,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2638,14 +2653,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2660,7 +2675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2675,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2690,7 +2705,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2705,7 +2720,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2720,7 +2735,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2735,7 +2750,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2750,475 +2765,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3240,7 +3255,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E85"/>
@@ -3249,23 +3264,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3273,7 +3288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3285,14 +3300,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3307,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3322,7 +3337,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3337,7 +3352,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3352,7 +3367,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3367,7 +3382,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3382,7 +3397,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3397,7 +3412,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3412,7 +3427,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3427,7 +3442,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3442,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3457,409 +3472,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3881,32 +3896,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3914,7 +3929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3948,7 +3963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3963,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3978,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3993,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4008,7 +4023,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4023,7 +4038,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4038,7 +4053,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4053,7 +4068,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4068,7 +4083,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4083,7 +4098,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4098,7 +4113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4113,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4128,7 +4143,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4143,427 +4158,427 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4585,7 +4600,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -4594,23 +4609,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4630,14 +4645,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4652,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4667,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4682,7 +4697,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4697,7 +4712,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4712,7 +4727,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4727,481 +4742,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5223,32 +5238,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5268,14 +5283,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5290,7 +5305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5305,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5320,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5335,7 +5350,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5350,7 +5365,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5365,7 +5380,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5380,7 +5395,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5395,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5410,7 +5425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5425,7 +5440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5440,7 +5455,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
         <v>43</v>
@@ -5455,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5470,7 +5485,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5485,7 +5500,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5500,415 +5515,415 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcusevinc/Desktop/Medizininformatik/Programmierung/jee-neon/ch.bfh.btx8081.w2016.blue/trunk/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="20200" windowHeight="10240" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13704" windowHeight="6480" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -21,20 +16,21 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
+  <oleSize ref="A1:H17"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -199,11 +195,14 @@
   <si>
     <t>Interview durchführung</t>
   </si>
+  <si>
+    <t>Inberviewvorbereitung, Interview durchführen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -373,7 +372,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -415,22 +414,13 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -560,11 +550,20 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -610,10 +609,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="29">
+    <tableColumn id="1" name="Person" dataDxfId="26">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -623,17 +622,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -644,10 +643,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="20">
+    <tableColumn id="1" name="Person" dataDxfId="17">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -657,17 +656,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="12" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -728,11 +727,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="58" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="57" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="55" totalsRowDxfId="54"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -743,10 +742,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabelle69712" displayName="Tabelle69712" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="56">
+    <tableColumn id="1" name="Person" dataDxfId="53">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="55">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="52">
       <calculatedColumnFormula>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -756,17 +755,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabelle3510813" displayName="Tabelle3510813" ref="B7:E92" totalsRowCount="1" headerRowDxfId="51">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B8:E91">
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="46" totalsRowDxfId="45"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -777,10 +776,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="47">
+    <tableColumn id="1" name="Person" dataDxfId="44">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="46">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="43">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -790,17 +789,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="42">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -811,10 +810,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="38">
+    <tableColumn id="1" name="Person" dataDxfId="35">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -823,17 +822,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1103,69 +1102,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
     <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" customWidth="1"/>
     <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.83203125" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" customWidth="1"/>
     <col min="20" max="20" width="9.33203125" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
     <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" customWidth="1"/>
+    <col min="24" max="24" width="22.77734375" customWidth="1"/>
     <col min="25" max="25" width="9.33203125" customWidth="1"/>
     <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
     <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.83203125" customWidth="1"/>
+    <col min="29" max="29" width="22.77734375" customWidth="1"/>
     <col min="30" max="30" width="9.33203125" customWidth="1"/>
     <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
     <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.83203125" customWidth="1"/>
+    <col min="34" max="34" width="22.77734375" customWidth="1"/>
     <col min="35" max="35" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1184,7 +1183,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1194,7 +1193,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1204,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1214,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1224,17 +1223,17 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
       </c>
       <c r="B10" s="14">
         <f>Tabelle69720[Aufwand Total]</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1244,13 +1243,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>90.75</v>
+        <v>95.75</v>
       </c>
     </row>
   </sheetData>
@@ -1263,32 +1262,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1308,14 +1307,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1330,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1345,7 +1344,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1360,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1375,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1390,7 +1389,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1405,7 +1404,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1420,7 +1419,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1435,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1450,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>43</v>
       </c>
@@ -1464,445 +1463,445 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1924,32 +1923,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1969,14 +1968,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1991,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -2006,7 +2005,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2021,7 +2020,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2036,7 +2035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2051,7 +2050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2066,7 +2065,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2081,7 +2080,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2096,7 +2095,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2111,7 +2110,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2126,7 +2125,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2141,451 +2140,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2608,7 +2607,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
@@ -2617,23 +2616,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2653,14 +2652,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2675,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2690,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2705,7 +2704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2720,7 +2719,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2735,7 +2734,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2750,7 +2749,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2765,475 +2764,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3255,7 +3254,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E85"/>
@@ -3264,23 +3263,23 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3300,14 +3299,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3322,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3337,7 +3336,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3352,7 +3351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3367,7 +3366,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3382,7 +3381,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3397,7 +3396,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3412,7 +3411,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3427,7 +3426,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3442,7 +3441,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3457,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3472,409 +3471,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3896,7 +3895,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E91"/>
@@ -3905,23 +3904,23 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3941,14 +3940,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3963,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3978,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3993,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -4008,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4023,7 +4022,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4038,7 +4037,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4053,7 +4052,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4068,7 +4067,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4083,7 +4082,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4098,7 +4097,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4113,7 +4112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4128,7 +4127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4143,7 +4142,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4158,427 +4157,427 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4600,32 +4599,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4641,18 +4640,18 @@
       <c r="B3">
         <f>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4667,7 +4666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4682,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4697,7 +4696,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4712,7 +4711,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4727,7 +4726,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4742,481 +4741,490 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5224,7 +5232,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510821[Aufwand
 (in h)])</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
     </row>
   </sheetData>
@@ -5238,7 +5246,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E90"/>
@@ -5247,23 +5255,23 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5271,7 +5279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5283,14 +5291,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5305,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5320,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5335,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5350,7 +5358,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5365,7 +5373,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5380,7 +5388,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5395,7 +5403,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5410,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5425,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5440,7 +5448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5455,7 +5463,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
         <v>43</v>
@@ -5470,7 +5478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5485,7 +5493,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5500,7 +5508,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5515,415 +5523,415 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13704" windowHeight="6480" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="3770" yWindow="3870" windowWidth="13790" windowHeight="6890" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <oleSize ref="A1:H17"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <oleSize ref="A13:H32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -193,16 +193,13 @@
     <t>CS1_Task 3 bearbeitung</t>
   </si>
   <si>
-    <t>Interview durchführung</t>
-  </si>
-  <si>
-    <t>Inberviewvorbereitung, Interview durchführen</t>
+    <t>Bearbeitung CS1_Design_Thinking/Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -388,19 +385,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -414,13 +411,22 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -434,20 +440,11 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -628,11 +625,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -643,10 +640,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="17">
+    <tableColumn id="1" name="Person" dataDxfId="20">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -656,17 +653,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -696,11 +693,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="5">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="6" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1094,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1107,64 +1104,64 @@
   </sheetPr>
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.77734375" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.77734375" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.77734375" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" customWidth="1"/>
+    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" customWidth="1"/>
+    <col min="25" max="25" width="9.36328125" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.81640625" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.81640625" customWidth="1"/>
+    <col min="35" max="35" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="25.75" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1172,18 +1169,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
       </c>
       <c r="B5">
         <f>Tabelle697[Aufwand Total]</f>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1193,7 +1190,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1203,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1213,43 +1210,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
       </c>
       <c r="B9" s="14">
         <f>Tabelle69718[Aufwand Total]</f>
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
       </c>
       <c r="B10" s="14">
         <f>Tabelle69720[Aufwand Total]</f>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
       </c>
       <c r="B11" s="14">
         <f>Tabelle69722[Aufwand Total]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>95.75</v>
+        <v>96.25</v>
       </c>
     </row>
   </sheetData>
@@ -1268,26 +1265,26 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1303,18 +1300,18 @@
       <c r="B3">
         <f>Tabelle35108[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1329,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1344,7 +1341,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1359,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1374,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1389,7 +1386,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1404,7 +1401,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1419,7 +1416,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1434,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1449,459 +1446,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6">
-        <v>42664</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1909,7 +1898,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle35108[Aufwand
 (in h)])</f>
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -1928,27 +1917,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +1945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1968,14 +1957,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1990,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -2005,7 +1994,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2020,7 +2009,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2035,7 +2024,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2050,7 +2039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2065,7 +2054,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2080,7 +2069,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2095,7 +2084,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2110,7 +2099,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2125,7 +2114,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2140,451 +2129,451 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2616,23 +2605,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2640,7 +2629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2652,14 +2641,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2674,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2689,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2704,7 +2693,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2719,7 +2708,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2734,7 +2723,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2749,7 +2738,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2764,475 +2753,475 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3259,27 +3248,27 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +3276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3299,14 +3288,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3321,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3336,7 +3325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.25" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3351,7 +3340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3366,7 +3355,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3381,7 +3370,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3396,7 +3385,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3411,7 +3400,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3426,7 +3415,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3441,7 +3430,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3456,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3471,409 +3460,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3900,27 +3889,27 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3928,7 +3917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3936,18 +3925,18 @@
       <c r="B3">
         <f>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>21.25</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3962,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3977,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3992,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -4007,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4022,7 +4011,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4037,7 +4026,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4052,7 +4041,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4067,7 +4056,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4082,7 +4071,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4097,7 +4086,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4112,7 +4101,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4127,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4142,7 +4131,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4157,427 +4146,445 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B90" si="1">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
       <c r="C91" s="8" t="s">
         <v>1</v>
@@ -4585,7 +4592,7 @@
       <c r="E91">
         <f>SUBTOTAL(109,Tabelle3510819[Aufwand
 (in h)])</f>
-        <v>21.25</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4604,27 +4611,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4632,7 +4639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4640,18 +4647,18 @@
       <c r="B3">
         <f>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>11.25</v>
+        <v>6.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4666,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4681,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4696,7 +4703,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4711,7 +4718,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4726,7 +4733,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4741,490 +4748,481 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C13" s="6">
-        <v>42664</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -5232,7 +5230,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510821[Aufwand
 (in h)])</f>
-        <v>11.25</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
@@ -5251,27 +5249,27 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5279,7 +5277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5287,18 +5285,18 @@
       <c r="B3">
         <f>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>23</v>
+        <v>26.75</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -5313,7 +5311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5328,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5343,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5358,7 +5356,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5373,7 +5371,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5388,7 +5386,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5403,7 +5401,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5418,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5433,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5448,7 +5446,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5463,7 +5461,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" ref="B18" si="1">WEEKNUM(C18,2)</f>
         <v>43</v>
@@ -5478,7 +5476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5493,7 +5491,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5508,7 +5506,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5523,415 +5521,433 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C23" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="2">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -5939,7 +5955,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle3510823[Aufwand
 (in h)])</f>
-        <v>23</v>
+        <v>26.75</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3770" yWindow="3870" windowWidth="13790" windowHeight="6890" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9130" windowHeight="6630" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,8 +21,7 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <oleSize ref="A13:H32"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -193,13 +197,16 @@
     <t>CS1_Task 3 bearbeitung</t>
   </si>
   <si>
-    <t>Bearbeitung CS1_Design_Thinking/Präsentation</t>
+    <t>Interview durchführung</t>
+  </si>
+  <si>
+    <t>Interviewvorbereitung, Interview durchführen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -385,19 +392,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -411,22 +418,13 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -440,11 +438,20 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -625,11 +632,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -640,10 +647,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="20">
+    <tableColumn id="1" name="Person" dataDxfId="17">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -653,17 +660,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="12" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -693,11 +700,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="5">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1091,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1143,13 +1150,13 @@
     <col min="35" max="35" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
@@ -1161,7 +1168,7 @@
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1169,18 +1176,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
       </c>
       <c r="B5">
         <f>Tabelle697[Aufwand Total]</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1190,7 +1197,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
@@ -1200,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1210,43 +1217,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
       </c>
       <c r="B9" s="14">
         <f>Tabelle69718[Aufwand Total]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
       </c>
       <c r="B10" s="14">
         <f>Tabelle69720[Aufwand Total]</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
       </c>
       <c r="B11" s="14">
         <f>Tabelle69722[Aufwand Total]</f>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>96.25</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1265,10 +1272,10 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
@@ -1284,7 +1291,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1300,11 +1307,11 @@
       <c r="B3">
         <f>Tabelle35108[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1341,7 +1348,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1356,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1371,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1386,7 +1393,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1401,7 +1408,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1431,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1446,49 +1453,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1898,7 +1913,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle35108[Aufwand
 (in h)])</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1936,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -1937,7 +1952,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1957,7 +1972,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -1994,7 +2009,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2009,7 +2024,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2024,7 +2039,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2039,7 +2054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2054,7 +2069,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2069,7 +2084,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2084,7 +2099,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2099,7 +2114,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2114,7 +2129,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2129,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2153,427 +2168,427 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2602,10 +2617,10 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -2621,7 +2636,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2641,7 +2656,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2678,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2693,7 +2708,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2708,7 +2723,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2723,7 +2738,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2753,31 +2768,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3248,11 +3263,11 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
@@ -3268,7 +3283,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3276,7 +3291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3288,7 +3303,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3325,7 +3340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3355,7 +3370,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3370,7 +3385,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3385,7 +3400,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3400,7 +3415,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3889,11 +3904,11 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
@@ -3909,7 +3924,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3917,7 +3932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3925,11 +3940,11 @@
       <c r="B3">
         <f>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>25</v>
+        <v>21.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
@@ -3951,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -3966,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3981,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3996,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4011,7 +4026,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4026,7 +4041,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4041,7 +4056,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4149,31 +4164,13 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C21" s="6">
-        <v>42667</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C22" s="6">
-        <v>42667</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -4592,7 +4589,7 @@
       <c r="E91">
         <f>SUBTOTAL(109,Tabelle3510819[Aufwand
 (in h)])</f>
-        <v>25</v>
+        <v>21.25</v>
       </c>
     </row>
   </sheetData>
@@ -4611,11 +4608,11 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
@@ -4631,7 +4628,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4639,7 +4636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4647,11 +4644,11 @@
       <c r="B3">
         <f>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6.25</v>
+        <v>14.5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
@@ -4673,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -4688,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4703,7 +4700,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4718,7 +4715,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4733,7 +4730,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4748,121 +4745,166 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42656</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42659</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42660</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42663</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5230,7 +5272,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510821[Aufwand
 (in h)])</f>
-        <v>6.25</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -5249,11 +5291,11 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
@@ -5269,7 +5311,7 @@
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5277,7 +5319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Claudia Telesca</v>
@@ -5285,11 +5327,11 @@
       <c r="B3">
         <f>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>26.75</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
@@ -5311,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -5326,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -5341,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -5356,7 +5398,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="15">
         <f t="shared" ref="B11:B70" si="0">WEEKNUM(C11,2)</f>
         <v>41</v>
@@ -5371,7 +5413,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5386,7 +5428,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5524,31 +5566,13 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C22" s="6">
-        <v>42667</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C23" s="6">
-        <v>42667</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
@@ -5955,7 +5979,7 @@
       <c r="E90">
         <f>SUBTOTAL(109,Tabelle3510823[Aufwand
 (in h)])</f>
-        <v>26.75</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="3350" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="5510" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
-  <oleSize ref="A1:F8"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <oleSize ref="A7:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Interviewvorbereitung, Interview durchführen</t>
+  </si>
+  <si>
+    <t>Erstelllung Storyboards CS2 Task 3</t>
+  </si>
+  <si>
+    <t>Storyboards gescannt und auf GitHub gestellt</t>
   </si>
 </sst>
 </file>
@@ -379,6 +385,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -521,20 +536,11 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -609,10 +615,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="26">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -622,17 +628,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -643,10 +649,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle69720" displayName="Tabelle69720" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="17">
+    <tableColumn id="1" name="Person" dataDxfId="20">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="16">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="19">
       <calculatedColumnFormula>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -656,17 +662,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabelle3510821" displayName="Tabelle3510821" ref="B7:E92" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -677,10 +683,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="8">
+    <tableColumn id="1" name="Person" dataDxfId="11">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="7">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -690,17 +696,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -761,11 +767,11 @@
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="49" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="48" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -776,10 +782,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="44">
+    <tableColumn id="1" name="Person" dataDxfId="47">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="43">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="46">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -789,17 +795,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="45">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" name="KW" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="40" totalsRowDxfId="39"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -810,10 +816,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="35">
+    <tableColumn id="1" name="Person" dataDxfId="38">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -822,17 +828,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1190,7 +1196,7 @@
       </c>
       <c r="B6">
         <f>Tabelle69712[Aufwand Total]</f>
-        <v>9.75</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1249,7 +1255,7 @@
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1928,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1964,7 +1970,7 @@
       <c r="B3">
         <f>Tabelle3510813[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>9.75</v>
+        <v>15.75</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -2143,25 +2149,61 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42663</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42665</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
@@ -2592,7 +2634,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510813[Aufwand
 (in h)])</f>
-        <v>9.75</v>
+        <v>15.75</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3301,7 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3900,7 +3942,7 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4604,7 +4646,7 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -5287,7 +5329,7 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="5510" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="3350" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <oleSize ref="A7:H20"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <oleSize ref="A13:F19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Storyboards gescannt und auf GitHub gestellt</t>
+  </si>
+  <si>
+    <t>Präsentationvorbereitung Interview</t>
+  </si>
+  <si>
+    <t>Bearbeitung Prototyp</t>
   </si>
 </sst>
 </file>
@@ -391,6 +397,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -420,127 +439,114 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -615,10 +621,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="29">
+    <tableColumn id="1" name="Person" dataDxfId="26">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -628,17 +634,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="6">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="4"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -668,11 +674,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="5" name="KW" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="17" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="16" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -683,10 +689,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="11">
+    <tableColumn id="1" name="Person" dataDxfId="15">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="10">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="14">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -696,17 +702,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="13">
   <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="KW" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -767,11 +773,11 @@
     <sortCondition ref="C7:C91"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="49" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="48" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="46" totalsRowDxfId="45"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -782,10 +788,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabelle69714" displayName="Tabelle69714" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="47">
+    <tableColumn id="1" name="Person" dataDxfId="44">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="46">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="43">
       <calculatedColumnFormula>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -795,17 +801,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle3510815" displayName="Tabelle3510815" ref="B7:E92" totalsRowCount="1" headerRowDxfId="42">
   <autoFilter ref="B7:E91"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -816,10 +822,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="38">
+    <tableColumn id="1" name="Person" dataDxfId="35">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -828,17 +834,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1236,7 +1242,7 @@
       </c>
       <c r="B10" s="14">
         <f>Tabelle69720[Aufwand Total]</f>
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1255,7 +1261,7 @@
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>105</v>
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1940,7 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3301,8 +3307,8 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,8 +3948,8 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4646,8 +4652,8 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4682,7 +4688,7 @@
       <c r="B3">
         <f>Tabelle3510821[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -4860,14 +4866,32 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>WEEKNUM(C18,2)</f>
+        <v>44</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42669</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -5310,7 +5334,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510821[Aufwand
 (in h)])</f>
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5329,8 +5353,8 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/doc/Zeitrapportierung_SE.xlsx
+++ b/doc/Zeitrapportierung_SE.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="3350" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="7755" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Burcu Sevinc" sheetId="4" r:id="rId2"/>
     <sheet name="Fabian Kammermann" sheetId="5" r:id="rId3"/>
-    <sheet name="Nivedeah Kanagarasa" sheetId="6" r:id="rId4"/>
+    <sheet name="Niveadha Kanagarasa" sheetId="6" r:id="rId4"/>
     <sheet name="Pascal Dittli" sheetId="7" r:id="rId5"/>
     <sheet name="Patrick Jolo" sheetId="8" r:id="rId6"/>
     <sheet name="Remy Lam" sheetId="9" r:id="rId7"/>
     <sheet name="Claudia Telesca" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
-  <oleSize ref="A13:F19"/>
+  <calcPr calcId="171027"/>
+  <oleSize ref="A1:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>Claudia Telesca</t>
   </si>
@@ -209,6 +209,21 @@
   </si>
   <si>
     <t>Bearbeitung Prototyp</t>
+  </si>
+  <si>
+    <t>Storyboard zeichnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teambesprechnung </t>
+  </si>
+  <si>
+    <t>Interviewfragen erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Storyboard zeichnen </t>
+  </si>
+  <si>
+    <t>Prototyp unterstuetzen</t>
   </si>
 </sst>
 </file>
@@ -384,7 +399,7 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -397,17 +412,62 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -439,85 +499,40 @@
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -621,10 +636,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabelle69718" displayName="Tabelle69718" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="26">
+    <tableColumn id="1" name="Person" dataDxfId="29">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="25">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="28">
       <calculatedColumnFormula>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -634,17 +649,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle3510819" displayName="Tabelle3510819" ref="B7:E91" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="B7:E90"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="23" totalsRowDxfId="6">
+    <tableColumn id="5" name="KW" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -674,11 +689,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="5" name="KW" dataDxfId="17" totalsRowDxfId="5">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="17" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="16" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="15" totalsRowDxfId="3"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -689,10 +704,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabelle69722" displayName="Tabelle69722" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="15">
+    <tableColumn id="1" name="Person" dataDxfId="14">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="14">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="13">
       <calculatedColumnFormula>Tabelle3510823[[#Totals],[Aufwand
 (in h)]]</calculatedColumnFormula>
     </tableColumn>
@@ -702,17 +717,17 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabelle3510823" displayName="Tabelle3510823" ref="B7:E90" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="B7:E89"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="5" name="KW" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -807,11 +822,11 @@
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" name="KW" dataDxfId="41" totalsRowDxfId="2">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="40" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="39" totalsRowDxfId="0"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -822,10 +837,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle69716" displayName="Tabelle69716" ref="A2:B3" totalsRowShown="0">
   <autoFilter ref="A2:B3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Person" dataDxfId="35">
+    <tableColumn id="1" name="Person" dataDxfId="38">
       <calculatedColumnFormula>B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Aufwand Total" dataDxfId="34">
+    <tableColumn id="2" name="Aufwand Total" dataDxfId="37">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -834,17 +849,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabelle3510817" displayName="Tabelle3510817" ref="B7:E85" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="B7:E84"/>
   <sortState ref="B9:E91">
     <sortCondition descending="1" ref="C11:C94"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="KW" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="5" name="KW" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>WEEKNUM(C8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="Tätigkeit" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="Tätigkeit" dataDxfId="31" totalsRowDxfId="30"/>
     <tableColumn id="3" name="Aufwand_x000a_(in h)" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1123,60 +1138,60 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.81640625" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.81640625" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.81640625" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" customWidth="1"/>
-    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.81640625" customWidth="1"/>
-    <col min="30" max="30" width="9.36328125" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.81640625" customWidth="1"/>
-    <col min="35" max="35" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.875" customWidth="1"/>
+    <col min="20" max="20" width="9.375" customWidth="1"/>
+    <col min="22" max="22" width="14.625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.875" customWidth="1"/>
+    <col min="25" max="25" width="9.375" customWidth="1"/>
+    <col min="27" max="27" width="14.625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.875" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="32" max="32" width="14.625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.875" customWidth="1"/>
+    <col min="35" max="35" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tabelle697[Person]</f>
         <v>Burcu Sevinc</v>
@@ -1195,7 +1210,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1205,17 +1220,17 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>Tabelle69714[Person]</f>
         <v>Niveadha Kanagarasa</v>
       </c>
       <c r="B7" s="14">
         <f>Tabelle69714[Aufwand Total]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1225,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
@@ -1235,7 +1250,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1245,7 +1260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>Tabelle69722[Person]</f>
         <v>Claudia Telesca</v>
@@ -1255,13 +1270,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>107.5</v>
+        <v>115.5</v>
       </c>
     </row>
   </sheetData>
@@ -1283,23 +1298,23 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Burcu Sevinc</v>
@@ -1319,14 +1334,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -1341,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B70" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -1356,7 +1371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -1371,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1386,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1401,7 +1416,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1416,7 +1431,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1431,7 +1446,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <f>WEEKNUM(C13,2)</f>
         <v>42</v>
@@ -1446,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1461,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <v>43</v>
       </c>
@@ -1475,445 +1490,445 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" ref="B71:B89" si="1">WEEKNUM(C71,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
       <c r="C90" s="8" t="s">
         <v>1</v>
@@ -1944,23 +1959,23 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -1980,14 +1995,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2002,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B39" si="0">WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -2017,7 +2032,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2032,7 +2047,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2047,7 +2062,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2062,7 +2077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2077,7 +2092,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2092,7 +2107,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2107,7 +2122,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2122,7 +2137,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2137,7 +2152,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2152,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2167,7 +2182,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2182,7 +2197,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="29.1" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2197,7 +2212,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2212,427 +2227,427 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B40" s="12">
         <f t="shared" ref="B40:B71" si="1">WEEKNUM(C40,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B42" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B44" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B45" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B46" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B48" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B50" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B52" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B54" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B56" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B58" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B59" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B60" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B62" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B64" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B65" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B66" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B72" s="12">
         <f t="shared" ref="B72:B91" si="2">WEEKNUM(C72,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B73" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B74" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B75" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B76" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B77" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B78" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B79" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B80" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B81" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B82" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B83" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B84" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B85" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B86" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B87" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B88" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B89" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B90" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B91" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -2660,27 +2675,27 @@
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Niveadha Kanagarasa</v>
@@ -2696,18 +2711,18 @@
       <c r="B3">
         <f>Tabelle3510815[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -2722,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -2737,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" ref="B9:B72" si="0">WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -2752,7 +2767,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2767,7 +2782,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2782,7 +2797,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2797,7 +2812,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2812,475 +2827,529 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42661</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42663</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42664</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42667</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42668</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42669</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" ref="B73:B91" si="1">WEEKNUM(C73,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
       <c r="C92" s="8" t="s">
         <v>1</v>
@@ -3288,7 +3357,7 @@
       <c r="E92">
         <f>SUBTOTAL(109,Tabelle3510815[Aufwand
 (in h)])</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3307,27 +3376,27 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3335,7 +3404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3347,14 +3416,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -3369,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B65" si="0">WEEKNUM(C8,2)</f>
         <v>40</v>
@@ -3384,7 +3453,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -3399,7 +3468,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -3414,7 +3483,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -3429,7 +3498,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3444,7 +3513,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3459,7 +3528,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3474,7 +3543,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3489,7 +3558,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3504,7 +3573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3519,409 +3588,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <f t="shared" ref="B66:B84" si="1">WEEKNUM(C66,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
       <c r="C85" s="8" t="s">
         <v>1</v>
@@ -3949,26 +4018,26 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3976,7 +4045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3988,14 +4057,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
@@ -4010,7 +4079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <f>WEEKNUM(C8,2)</f>
         <v>39</v>
@@ -4025,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <f>WEEKNUM(C9,2)</f>
         <v>40</v>
@@ -4040,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f>WEEKNUM(C10,2)</f>
         <v>40</v>
@@ -4055,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f>WEEKNUM(C11,2)</f>
         <v>40</v>
@@ -4070,7 +4139,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" ref="B12:B71" si="0">WEEKNUM(C12,2)</f>
         <v>41</v>
@@ -4085,7 +4154,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4100,7 +4169,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4115,7 +4184,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4130,7 +4199,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4145,7 +4214,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4160,7 +4229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">